--- a/medicine/Hématologie/Dicoumarol/Dicoumarol.xlsx
+++ b/medicine/Hématologie/Dicoumarol/Dicoumarol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dicoumarol ou hydroxycoumarine est un dérivé de la coumarine.
-Initialement utilisé à forte dose comme raticide (antivitamine K qui cause de graves hémorragies internes, employé dans l'appât rodenticide de type mort aux rats), il a été utilisé à faible dose en clinique comme anticoagulant avant d'être supplanté par un de ses dérivés : la warfarine (Coumadine®)[3].
+Initialement utilisé à forte dose comme raticide (antivitamine K qui cause de graves hémorragies internes, employé dans l'appât rodenticide de type mort aux rats), il a été utilisé à faible dose en clinique comme anticoagulant avant d'être supplanté par un de ses dérivés : la warfarine (Coumadine®).
 Au même titre que l'héparine (F. C. Mac Lean, 1917), le dicoumarol (K. Link, 1941) fait partie des chefs de file des anticoagulants.
 . 
 </t>
